--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Practitioner profile represents an anonymized eCR Practitioner.
-It is based on the **US Core Practitioner** profile with further constraints to require masking of some data elements.</t>
+    <t>This Practitioner profile represents an anonymized eCR Practitioner.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,7 +394,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Practitioner.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>Practitioner.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Practitioner.contained</t>
@@ -420,9 +601,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Practitioner.extension</t>
   </si>
   <si>
@@ -430,10 +608,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -444,10 +618,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -489,9 +659,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -507,38 +674,12 @@
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Practitioner.identifier.use</t>
   </si>
   <si>
@@ -552,9 +693,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -798,41 +936,18 @@
     <t>Practitioner.name.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension:dataAbsentReason</t>
   </si>
   <si>
-    <t>dataAbsentReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
     <t>A value is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
-    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension:dataAbsentReason.id</t>
   </si>
   <si>
     <t>Practitioner.name.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension:dataAbsentReason.extension</t>
   </si>
   <si>
@@ -845,44 +960,10 @@
     <t>Practitioner.name.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension:dataAbsentReason.value[x]</t>
   </si>
   <si>
     <t>Practitioner.name.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>masked</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Practitioner.name.use</t>
@@ -2145,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2982,13 +3063,13 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2999,21 +3080,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -3033,9 +3114,7 @@
       <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>78</v>
@@ -3084,25 +3163,25 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -3113,18 +3192,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3139,17 +3218,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -3186,16 +3263,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -3216,7 +3293,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3230,43 +3307,41 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3314,7 +3389,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3332,7 +3407,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3343,10 +3418,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3354,35 +3429,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3418,49 +3489,51 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3471,7 +3544,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3483,13 +3556,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3528,37 +3601,37 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3569,21 +3642,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3595,16 +3668,16 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3612,7 +3685,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3642,37 +3715,37 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3683,10 +3756,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3694,7 +3767,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -3703,32 +3776,28 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3746,13 +3815,11 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3770,7 +3837,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3779,16 +3846,16 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3799,10 +3866,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3810,7 +3877,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3822,23 +3889,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3862,13 +3925,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3886,10 +3949,10 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>87</v>
@@ -3901,10 +3964,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3915,10 +3978,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3932,29 +3995,27 @@
         <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3966,7 +4027,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -4002,10 +4063,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -4014,16 +4075,16 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4031,42 +4092,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4080,7 +4141,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4116,28 +4177,28 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4145,21 +4206,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -4168,18 +4229,20 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4228,28 +4291,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4257,44 +4320,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4342,28 +4407,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4371,23 +4436,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>88</v>
@@ -4399,17 +4462,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4419,7 +4484,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4446,19 +4511,17 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4473,24 +4536,24 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>155</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4510,29 +4573,23 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4576,7 +4633,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4588,63 +4645,61 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4680,19 +4735,19 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4704,16 +4759,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4721,10 +4776,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4741,22 +4796,26 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4780,13 +4839,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4863,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4816,13 +4875,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4833,10 +4892,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4844,10 +4903,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4856,19 +4915,23 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4892,49 +4955,49 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4945,14 +5008,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4970,19 +5031,23 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4994,7 +5059,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -5030,28 +5095,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5059,10 +5124,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5070,30 +5135,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5106,7 +5173,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5142,7 +5209,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5151,19 +5218,19 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5171,10 +5238,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5185,7 +5252,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5194,16 +5261,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5242,40 +5309,40 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5283,10 +5350,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5294,7 +5361,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -5306,19 +5373,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5326,70 +5393,70 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5400,48 +5467,52 @@
         <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
@@ -5456,11 +5527,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5478,39 +5551,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5527,30 +5600,32 @@
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5570,13 +5645,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5594,7 +5669,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5609,24 +5684,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5634,13 +5709,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
@@ -5649,19 +5724,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5710,28 +5785,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5739,43 +5814,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5824,7 +5897,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5836,16 +5909,16 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5853,10 +5926,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5864,10 +5937,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5879,13 +5952,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5924,31 +5997,31 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5965,12 +6038,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5979,10 +6054,10 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
@@ -5991,13 +6066,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6036,17 +6111,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6064,7 +6141,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6075,26 +6152,24 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
@@ -6103,13 +6178,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6160,25 +6235,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6189,10 +6264,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6203,7 +6278,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6215,13 +6290,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6260,37 +6335,37 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6301,10 +6376,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6312,10 +6387,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6327,22 +6402,24 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6372,37 +6449,37 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6413,10 +6490,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6439,24 +6516,22 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>78</v>
@@ -6474,13 +6549,11 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6498,25 +6571,25 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6527,10 +6600,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6538,7 +6611,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
@@ -6547,28 +6620,32 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>78</v>
@@ -6586,11 +6663,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6608,7 +6687,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6617,19 +6696,19 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6637,10 +6716,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6660,19 +6739,23 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6693,7 +6776,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>78</v>
@@ -6720,7 +6803,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6732,13 +6815,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6749,24 +6832,24 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -6775,16 +6858,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6834,28 +6917,28 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6863,10 +6946,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6877,7 +6960,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6886,16 +6969,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6946,28 +7029,28 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6975,10 +7058,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6986,7 +7069,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6998,16 +7081,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7046,19 +7129,17 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7070,13 +7151,13 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -7087,44 +7168,44 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7172,28 +7253,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7201,10 +7282,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7215,7 +7296,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7224,23 +7305,19 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>126</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7288,28 +7365,28 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7317,10 +7394,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7331,7 +7408,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7343,13 +7420,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7388,37 +7465,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7429,10 +7506,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7443,7 +7520,7 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7455,22 +7532,24 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
@@ -7500,37 +7579,37 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7541,14 +7620,12 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7560,7 +7637,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7569,13 +7646,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7584,7 +7661,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
@@ -7602,13 +7679,11 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7626,25 +7701,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7655,10 +7730,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7681,13 +7756,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>158</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7711,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>78</v>
@@ -7738,7 +7813,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7747,7 +7822,7 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7756,7 +7831,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7767,21 +7842,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7790,18 +7865,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7838,19 +7915,19 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7862,16 +7939,16 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7879,10 +7956,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7890,10 +7967,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7902,27 +7979,25 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>78</v>
@@ -7964,28 +8039,28 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7993,10 +8068,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8004,10 +8079,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8016,16 +8091,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8034,7 +8109,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>78</v>
@@ -8052,11 +8127,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8074,25 +8151,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8103,10 +8180,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8129,16 +8206,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8162,13 +8241,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8186,7 +8265,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8195,19 +8274,19 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8215,10 +8294,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8229,7 +8308,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8241,19 +8320,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8302,28 +8381,28 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8331,10 +8410,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8351,26 +8430,22 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8394,13 +8469,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8418,7 +8493,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>398</v>
+        <v>128</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8430,16 +8505,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8447,10 +8522,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8458,10 +8533,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8470,20 +8545,18 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8520,37 +8593,37 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>137</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8561,39 +8634,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8644,28 +8719,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>137</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8673,10 +8748,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8687,7 +8762,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8696,23 +8771,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8760,28 +8831,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8789,10 +8860,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8803,7 +8874,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8815,13 +8886,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8860,37 +8931,37 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8901,10 +8972,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8915,7 +8986,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8927,22 +8998,24 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>78</v>
@@ -8972,37 +9045,37 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9013,14 +9086,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9032,7 +9103,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>78</v>
@@ -9041,13 +9112,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9056,7 +9127,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>78</v>
@@ -9074,13 +9145,11 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9098,25 +9167,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9127,10 +9196,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9150,16 +9219,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9186,13 +9255,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9210,7 +9279,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>160</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9219,19 +9288,19 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9239,10 +9308,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9253,7 +9322,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9262,19 +9331,23 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9310,40 +9383,40 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9351,10 +9424,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9362,7 +9435,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -9371,30 +9444,32 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>264</v>
+        <v>419</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>78</v>
@@ -9412,13 +9487,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9436,10 +9511,10 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>87</v>
@@ -9448,16 +9523,16 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9465,10 +9540,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9476,7 +9551,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9488,25 +9563,27 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>78</v>
@@ -9524,11 +9601,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9546,7 +9625,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>274</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9555,16 +9634,16 @@
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9575,10 +9654,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9595,26 +9674,22 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9626,7 +9701,7 @@
         <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>78</v>
@@ -9638,13 +9713,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9662,7 +9737,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9677,13 +9752,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>441</v>
+        <v>157</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9691,10 +9766,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9705,7 +9780,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9717,18 +9792,20 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9740,7 +9817,7 @@
         <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>78</v>
@@ -9752,13 +9829,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9776,28 +9853,28 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9805,10 +9882,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9828,23 +9905,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>126</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9856,7 +9929,7 @@
         <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>78</v>
@@ -9892,7 +9965,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>457</v>
+        <v>128</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9904,13 +9977,13 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9921,10 +9994,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9932,7 +10005,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9944,16 +10017,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9968,7 +10041,7 @@
         <v>78</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>78</v>
@@ -9992,19 +10065,19 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>137</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10016,16 +10089,16 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10033,39 +10106,41 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>293</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>143</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10080,7 +10155,7 @@
         <v>78</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>78</v>
@@ -10116,28 +10191,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>137</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>474</v>
+        <v>144</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10145,14 +10220,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10168,20 +10243,18 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>126</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10194,7 +10267,7 @@
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10230,7 +10303,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10239,16 +10312,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>484</v>
+        <v>129</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10259,21 +10332,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10282,16 +10355,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>487</v>
+        <v>132</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10330,40 +10403,40 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>137</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10371,18 +10444,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>87</v>
@@ -10394,31 +10467,33 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>78</v>
@@ -10454,10 +10529,10 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>498</v>
+        <v>156</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>87</v>
@@ -10466,16 +10541,16 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>500</v>
+        <v>157</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10483,10 +10558,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10494,7 +10569,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10506,27 +10581,25 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>160</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>78</v>
@@ -10544,13 +10617,11 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10568,7 +10639,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>506</v>
+        <v>165</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10577,19 +10648,19 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>508</v>
+        <v>157</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10597,10 +10668,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10617,23 +10688,25 @@
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10646,7 +10719,7 @@
         <v>78</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>78</v>
@@ -10658,13 +10731,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10682,7 +10755,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10697,13 +10770,13 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>214</v>
+        <v>468</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10711,10 +10784,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10740,15 +10813,15 @@
         <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10760,7 +10833,7 @@
         <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>78</v>
@@ -10772,13 +10845,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10796,7 +10869,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10811,13 +10884,13 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>524</v>
+        <v>311</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10825,10 +10898,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10851,17 +10924,19 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>527</v>
+        <v>125</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O77" t="s" s="2">
-        <v>530</v>
+        <v>317</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10874,7 +10949,7 @@
         <v>78</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>78</v>
@@ -10910,7 +10985,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10925,13 +11000,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>532</v>
+        <v>320</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10939,10 +11014,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10962,21 +11037,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>125</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10988,7 +11061,7 @@
         <v>78</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>78</v>
@@ -11024,7 +11097,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11039,13 +11112,13 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11053,21 +11126,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>78</v>
+        <v>494</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11076,16 +11149,16 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>125</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>495</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11100,7 +11173,7 @@
         <v>78</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>78</v>
@@ -11136,13 +11209,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -11151,13 +11224,13 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11165,14 +11238,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11188,18 +11261,20 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>158</v>
+        <v>504</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11212,7 +11287,7 @@
         <v>78</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>78</v>
@@ -11248,7 +11323,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11260,13 +11335,13 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11277,21 +11352,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>132</v>
+        <v>512</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11300,20 +11375,18 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11362,28 +11435,28 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>166</v>
+        <v>515</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11391,46 +11464,42 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11442,7 +11511,7 @@
         <v>78</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>78</v>
+        <v>523</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>78</v>
@@ -11478,28 +11547,28 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>130</v>
+        <v>526</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11507,10 +11576,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11521,7 +11590,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11530,21 +11599,21 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11592,13 +11661,13 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
@@ -11607,13 +11676,13 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>533</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11621,10 +11690,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11632,7 +11701,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
@@ -11644,19 +11713,21 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11668,7 +11739,7 @@
         <v>78</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>78</v>
@@ -11680,13 +11751,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>563</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>564</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11704,10 +11775,10 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>87</v>
@@ -11719,13 +11790,13 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>546</v>
+        <v>377</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>258</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11733,10 +11804,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11756,20 +11827,20 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11794,13 +11865,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>78</v>
+        <v>547</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11818,7 +11889,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11833,13 +11904,13 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11847,10 +11918,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11870,19 +11941,21 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11930,7 +12003,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -11945,13 +12018,13 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>78</v>
+        <v>557</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -11959,10 +12032,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11985,19 +12058,17 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>178</v>
+        <v>561</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12022,13 +12093,13 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -12046,7 +12117,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12061,20 +12132,1042 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12084,7 +13177,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-practitioner.xlsx
+++ b/output/StructureDefinition-eicr-anon-practitioner.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -395,7 +395,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
